--- a/db/excel/2020GE-Results-Excel.xlsx
+++ b/db/excel/2020GE-Results-Excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="846">
   <si>
     <t xml:space="preserve">Electoral District</t>
   </si>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Trevor Hamilton</t>
   </si>
   <si>
-    <t xml:space="preserve">Conservative</t>
+    <t xml:space="preserve">BC Conservative Party</t>
   </si>
   <si>
     <t xml:space="preserve">7.88%</t>
@@ -103,6 +103,9 @@
     <t xml:space="preserve">registered</t>
   </si>
   <si>
+    <t xml:space="preserve">stop</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abbotsford South</t>
   </si>
   <si>
@@ -154,7 +157,7 @@
     <t xml:space="preserve">Sukhi Gill</t>
   </si>
   <si>
-    <t xml:space="preserve">B.C. Vision</t>
+    <t xml:space="preserve">BC Vision Party</t>
   </si>
   <si>
     <t xml:space="preserve">0.38%</t>
@@ -2570,6 +2573,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2591,23 +2595,27 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2773,13 +2781,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E768"/>
+  <dimension ref="A1:E769"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A577" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L589" activeCellId="0" sqref="L589"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.98"/>
   </cols>
@@ -2920,20 +2928,20 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>18</v>
@@ -2942,7 +2950,7 @@
         <v>9730</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,7 +2958,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>15</v>
@@ -2959,12 +2967,12 @@
         <v>2617</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>12</v>
@@ -2973,12 +2981,12 @@
         <v>7706</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -2987,7 +2995,7 @@
         <v>1720</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3021,20 +3029,20 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>18</v>
@@ -3043,7 +3051,7 @@
         <v>8880</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,7 +3059,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>15</v>
@@ -3060,26 +3068,26 @@
         <v>1671</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>75</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>21</v>
@@ -3088,12 +3096,12 @@
         <v>1766</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>12</v>
@@ -3102,7 +3110,7 @@
         <v>7119</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3136,29 +3144,29 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>474</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3166,7 +3174,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>12</v>
@@ -3175,12 +3183,12 @@
         <v>10500</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>21</v>
@@ -3189,12 +3197,12 @@
         <v>2354</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>18</v>
@@ -3203,7 +3211,7 @@
         <v>7735</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3237,20 +3245,20 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>18</v>
@@ -3259,7 +3267,7 @@
         <v>5163</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3267,7 +3275,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>15</v>
@@ -3276,12 +3284,12 @@
         <v>1878</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>12</v>
@@ -3290,7 +3298,7 @@
         <v>9190</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,20 +3332,20 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>18</v>
@@ -3346,7 +3354,7 @@
         <v>4754</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3354,7 +3362,7 @@
         <v>10</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>12</v>
@@ -3363,12 +3371,12 @@
         <v>11063</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>15</v>
@@ -3377,7 +3385,7 @@
         <v>2023</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3411,20 +3419,20 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>12</v>
@@ -3433,7 +3441,7 @@
         <v>12574</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3441,7 +3449,7 @@
         <v>10</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>18</v>
@@ -3450,26 +3458,26 @@
         <v>5386</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>281</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>15</v>
@@ -3478,7 +3486,7 @@
         <v>2628</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3512,20 +3520,20 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>18</v>
@@ -3534,7 +3542,7 @@
         <v>6846</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3542,7 +3550,7 @@
         <v>10</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>12</v>
@@ -3551,12 +3559,12 @@
         <v>12894</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>15</v>
@@ -3565,7 +3573,7 @@
         <v>2568</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3599,20 +3607,20 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>12</v>
@@ -3621,7 +3629,7 @@
         <v>4180</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3629,21 +3637,21 @@
         <v>10</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>263</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>18</v>
@@ -3652,12 +3660,12 @@
         <v>6600</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>15</v>
@@ -3666,21 +3674,21 @@
         <v>1379</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D79" s="2" t="n">
         <v>457</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3714,20 +3722,20 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>12</v>
@@ -3736,7 +3744,7 @@
         <v>3809</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3744,7 +3752,7 @@
         <v>10</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>15</v>
@@ -3753,12 +3761,12 @@
         <v>707</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>18</v>
@@ -3767,12 +3775,12 @@
         <v>5367</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>21</v>
@@ -3781,7 +3789,7 @@
         <v>1201</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3815,29 +3823,29 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>257</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3845,21 +3853,21 @@
         <v>10</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>177</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>15</v>
@@ -3868,12 +3876,12 @@
         <v>1888</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>12</v>
@@ -3882,12 +3890,12 @@
         <v>7349</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>21</v>
@@ -3896,12 +3904,12 @@
         <v>2910</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>18</v>
@@ -3910,7 +3918,7 @@
         <v>5102</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3944,29 +3952,29 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D105" s="2" t="n">
         <v>278</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3974,7 +3982,7 @@
         <v>10</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>15</v>
@@ -3983,26 +3991,26 @@
         <v>1822</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>5370</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>12</v>
@@ -4011,12 +4019,12 @@
         <v>8268</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>18</v>
@@ -4025,7 +4033,7 @@
         <v>6964</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4059,20 +4067,20 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>15</v>
@@ -4081,7 +4089,7 @@
         <v>1904</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4089,7 +4097,7 @@
         <v>10</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>12</v>
@@ -4098,12 +4106,12 @@
         <v>5708</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>18</v>
@@ -4112,7 +4120,7 @@
         <v>7034</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4146,20 +4154,20 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>15</v>
@@ -4168,7 +4176,7 @@
         <v>2033</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4176,7 +4184,7 @@
         <v>10</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>12</v>
@@ -4185,12 +4193,12 @@
         <v>12627</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>18</v>
@@ -4199,7 +4207,7 @@
         <v>8324</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4233,20 +4241,20 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>18</v>
@@ -4255,7 +4263,7 @@
         <v>5882</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4263,7 +4271,7 @@
         <v>10</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>12</v>
@@ -4272,12 +4280,12 @@
         <v>12278</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>15</v>
@@ -4286,7 +4294,7 @@
         <v>2405</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4320,20 +4328,20 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>15</v>
@@ -4342,7 +4350,7 @@
         <v>5681</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4350,7 +4358,7 @@
         <v>10</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>18</v>
@@ -4359,12 +4367,12 @@
         <v>8655</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>12</v>
@@ -4373,7 +4381,7 @@
         <v>14663</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4407,20 +4415,20 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>12</v>
@@ -4429,7 +4437,7 @@
         <v>11875</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4437,7 +4445,7 @@
         <v>10</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>15</v>
@@ -4446,12 +4454,12 @@
         <v>13059</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>18</v>
@@ -4460,7 +4468,7 @@
         <v>4606</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4494,20 +4502,20 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>12</v>
@@ -4516,7 +4524,7 @@
         <v>12215</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4524,7 +4532,7 @@
         <v>10</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>15</v>
@@ -4533,12 +4541,12 @@
         <v>2120</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>18</v>
@@ -4547,7 +4555,7 @@
         <v>7179</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4581,20 +4589,20 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>18</v>
@@ -4603,7 +4611,7 @@
         <v>12828</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4611,7 +4619,7 @@
         <v>10</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>12</v>
@@ -4620,12 +4628,12 @@
         <v>8404</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>15</v>
@@ -4634,7 +4642,7 @@
         <v>3581</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4668,20 +4676,20 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>12</v>
@@ -4690,7 +4698,7 @@
         <v>15070</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4698,7 +4706,7 @@
         <v>10</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>15</v>
@@ -4707,26 +4715,26 @@
         <v>6140</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D173" s="2" t="n">
         <v>254</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>18</v>
@@ -4735,7 +4743,7 @@
         <v>3940</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4769,29 +4777,29 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D180" s="2" t="n">
         <v>438</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4799,21 +4807,21 @@
         <v>10</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D181" s="2" t="n">
         <v>343</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>12</v>
@@ -4822,12 +4830,12 @@
         <v>5414</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>18</v>
@@ -4836,12 +4844,12 @@
         <v>5696</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>15</v>
@@ -4850,7 +4858,7 @@
         <v>1788</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4884,20 +4892,20 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>21</v>
@@ -4906,7 +4914,7 @@
         <v>1928</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4914,7 +4922,7 @@
         <v>10</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>12</v>
@@ -4923,12 +4931,12 @@
         <v>9145</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>15</v>
@@ -4937,12 +4945,12 @@
         <v>2224</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>18</v>
@@ -4951,21 +4959,21 @@
         <v>9341</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D194" s="2" t="n">
         <v>149</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4999,20 +5007,20 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>15</v>
@@ -5021,7 +5029,7 @@
         <v>4276</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5029,7 +5037,7 @@
         <v>10</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>18</v>
@@ -5038,12 +5046,12 @@
         <v>13453</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>12</v>
@@ -5052,7 +5060,7 @@
         <v>8575</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5086,29 +5094,29 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D208" s="2" t="n">
         <v>515</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5116,7 +5124,7 @@
         <v>10</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>15</v>
@@ -5125,12 +5133,12 @@
         <v>3833</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>12</v>
@@ -5139,12 +5147,12 @@
         <v>7121</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>18</v>
@@ -5153,21 +5161,21 @@
         <v>14679</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D212" s="2" t="n">
         <v>190</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5201,20 +5209,20 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>18</v>
@@ -5223,7 +5231,7 @@
         <v>13483</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5231,7 +5239,7 @@
         <v>10</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>15</v>
@@ -5240,12 +5248,12 @@
         <v>4476</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>12</v>
@@ -5254,7 +5262,7 @@
         <v>8605</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5288,29 +5296,29 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D226" s="2" t="n">
         <v>474</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5318,7 +5326,7 @@
         <v>10</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>12</v>
@@ -5327,26 +5335,26 @@
         <v>8854</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D228" s="2" t="n">
         <v>446</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>18</v>
@@ -5355,12 +5363,12 @@
         <v>12991</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>15</v>
@@ -5369,7 +5377,7 @@
         <v>3274</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5403,20 +5411,20 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>18</v>
@@ -5425,7 +5433,7 @@
         <v>9897</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5433,7 +5441,7 @@
         <v>10</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>12</v>
@@ -5442,12 +5450,12 @@
         <v>5499</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>15</v>
@@ -5456,7 +5464,7 @@
         <v>1697</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5490,20 +5498,20 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>21</v>
@@ -5512,7 +5520,7 @@
         <v>1447</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5520,7 +5528,7 @@
         <v>10</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>12</v>
@@ -5529,12 +5537,12 @@
         <v>10822</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>15</v>
@@ -5543,12 +5551,12 @@
         <v>3040</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>18</v>
@@ -5557,35 +5565,35 @@
         <v>1975</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D248" s="2" t="n">
         <v>189</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D249" s="2" t="n">
         <v>224</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5619,20 +5627,20 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>15</v>
@@ -5641,7 +5649,7 @@
         <v>4437</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5649,7 +5657,7 @@
         <v>10</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>18</v>
@@ -5658,12 +5666,12 @@
         <v>3980</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>12</v>
@@ -5672,21 +5680,21 @@
         <v>18073</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D258" s="2" t="n">
         <v>130</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5720,20 +5728,20 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>21</v>
@@ -5742,7 +5750,7 @@
         <v>1936</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5750,7 +5758,7 @@
         <v>10</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>15</v>
@@ -5759,12 +5767,12 @@
         <v>2469</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>12</v>
@@ -5773,12 +5781,12 @@
         <v>11089</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>18</v>
@@ -5787,7 +5795,7 @@
         <v>8014</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5821,20 +5829,20 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>12</v>
@@ -5843,7 +5851,7 @@
         <v>13169</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5851,21 +5859,21 @@
         <v>10</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D274" s="2" t="n">
         <v>231</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>18</v>
@@ -5874,26 +5882,26 @@
         <v>10385</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D276" s="2" t="n">
         <v>195</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>21</v>
@@ -5902,12 +5910,12 @@
         <v>3428</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>15</v>
@@ -5916,7 +5924,7 @@
         <v>3533</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5950,20 +5958,20 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>12</v>
@@ -5972,7 +5980,7 @@
         <v>14721</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5980,7 +5988,7 @@
         <v>10</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>18</v>
@@ -5989,12 +5997,12 @@
         <v>9009</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>15</v>
@@ -6003,7 +6011,7 @@
         <v>2962</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6037,20 +6045,20 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>18</v>
@@ -6059,7 +6067,7 @@
         <v>9163</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6067,7 +6075,7 @@
         <v>10</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>12</v>
@@ -6076,7 +6084,7 @@
         <v>15877</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6110,29 +6118,29 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D299" s="2" t="n">
         <v>370</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6140,21 +6148,21 @@
         <v>10</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D300" s="2" t="n">
         <v>610</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>15</v>
@@ -6163,12 +6171,12 @@
         <v>4991</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>12</v>
@@ -6177,12 +6185,12 @@
         <v>14298</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>18</v>
@@ -6191,7 +6199,7 @@
         <v>4291</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6225,20 +6233,20 @@
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>18</v>
@@ -6247,7 +6255,7 @@
         <v>5903</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6255,7 +6263,7 @@
         <v>10</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>12</v>
@@ -6264,12 +6272,12 @@
         <v>14344</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>15</v>
@@ -6278,7 +6286,7 @@
         <v>6078</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6312,20 +6320,20 @@
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>15</v>
@@ -6334,7 +6342,7 @@
         <v>7700</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6342,7 +6350,7 @@
         <v>10</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>18</v>
@@ -6351,12 +6359,12 @@
         <v>5354</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>12</v>
@@ -6365,7 +6373,7 @@
         <v>12787</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6399,29 +6407,29 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D325" s="2" t="n">
         <v>368</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6429,21 +6437,21 @@
         <v>10</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D326" s="2" t="n">
         <v>403</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>18</v>
@@ -6452,12 +6460,12 @@
         <v>4611</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>12</v>
@@ -6466,12 +6474,12 @@
         <v>3031</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>8</v>
@@ -6480,7 +6488,7 @@
         <v>413</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6514,20 +6522,20 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>12</v>
@@ -6536,7 +6544,7 @@
         <v>7296</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6544,7 +6552,7 @@
         <v>10</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>15</v>
@@ -6553,12 +6561,12 @@
         <v>5611</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>18</v>
@@ -6567,21 +6575,21 @@
         <v>4171</v>
       </c>
       <c r="E337" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D338" s="2" t="n">
         <v>384</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6615,20 +6623,20 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>18</v>
@@ -6637,7 +6645,7 @@
         <v>4291</v>
       </c>
       <c r="E344" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6645,7 +6653,7 @@
         <v>10</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>21</v>
@@ -6654,12 +6662,12 @@
         <v>912</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>15</v>
@@ -6668,12 +6676,12 @@
         <v>5020</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>12</v>
@@ -6682,21 +6690,21 @@
         <v>15903</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D348" s="2" t="n">
         <v>269</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6730,29 +6738,29 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D354" s="2" t="n">
         <v>267</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6760,7 +6768,7 @@
         <v>10</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>18</v>
@@ -6769,12 +6777,12 @@
         <v>1429</v>
       </c>
       <c r="E355" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>12</v>
@@ -6783,7 +6791,7 @@
         <v>4544</v>
       </c>
       <c r="E356" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6817,20 +6825,20 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>12</v>
@@ -6839,7 +6847,7 @@
         <v>12467</v>
       </c>
       <c r="E362" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6847,7 +6855,7 @@
         <v>10</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>18</v>
@@ -6856,12 +6864,12 @@
         <v>5904</v>
       </c>
       <c r="E363" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>15</v>
@@ -6870,12 +6878,12 @@
         <v>4731</v>
       </c>
       <c r="E364" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>21</v>
@@ -6884,7 +6892,7 @@
         <v>1462</v>
       </c>
       <c r="E365" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6918,20 +6926,20 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>18</v>
@@ -6940,7 +6948,7 @@
         <v>7274</v>
       </c>
       <c r="E371" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6948,7 +6956,7 @@
         <v>10</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>15</v>
@@ -6957,12 +6965,12 @@
         <v>3369</v>
       </c>
       <c r="E372" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>12</v>
@@ -6971,7 +6979,7 @@
         <v>15878</v>
       </c>
       <c r="E373" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7005,20 +7013,20 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>12</v>
@@ -7027,7 +7035,7 @@
         <v>12891</v>
       </c>
       <c r="E379" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7035,7 +7043,7 @@
         <v>10</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>15</v>
@@ -7044,12 +7052,12 @@
         <v>4514</v>
       </c>
       <c r="E380" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>18</v>
@@ -7058,21 +7066,21 @@
         <v>9827</v>
       </c>
       <c r="E381" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D382" s="2" t="n">
         <v>291</v>
       </c>
       <c r="E382" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7106,29 +7114,29 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D388" s="2" t="n">
         <v>142</v>
       </c>
       <c r="E388" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7136,7 +7144,7 @@
         <v>10</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>15</v>
@@ -7145,12 +7153,12 @@
         <v>7362</v>
       </c>
       <c r="E389" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>18</v>
@@ -7159,12 +7167,12 @@
         <v>6597</v>
       </c>
       <c r="E390" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>12</v>
@@ -7173,7 +7181,7 @@
         <v>14748</v>
       </c>
       <c r="E391" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7207,20 +7215,20 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>15</v>
@@ -7229,7 +7237,7 @@
         <v>5227</v>
       </c>
       <c r="E397" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7237,7 +7245,7 @@
         <v>10</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>21</v>
@@ -7246,26 +7254,26 @@
         <v>1404</v>
       </c>
       <c r="E398" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D399" s="2" t="n">
         <v>454</v>
       </c>
       <c r="E399" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>18</v>
@@ -7274,12 +7282,12 @@
         <v>11155</v>
       </c>
       <c r="E400" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>12</v>
@@ -7288,7 +7296,7 @@
         <v>13207</v>
       </c>
       <c r="E401" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7322,20 +7330,20 @@
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>21</v>
@@ -7344,7 +7352,7 @@
         <v>4150</v>
       </c>
       <c r="E407" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7352,7 +7360,7 @@
         <v>10</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>18</v>
@@ -7361,12 +7369,12 @@
         <v>6746</v>
       </c>
       <c r="E408" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>12</v>
@@ -7375,7 +7383,7 @@
         <v>1202</v>
       </c>
       <c r="E409" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7409,20 +7417,20 @@
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>18</v>
@@ -7431,7 +7439,7 @@
         <v>3862</v>
       </c>
       <c r="E415" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7439,7 +7447,7 @@
         <v>10</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>21</v>
@@ -7448,12 +7456,12 @@
         <v>2303</v>
       </c>
       <c r="E416" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>12</v>
@@ -7462,21 +7470,21 @@
         <v>1180</v>
       </c>
       <c r="E417" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D418" s="2" t="n">
         <v>199</v>
       </c>
       <c r="E418" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7510,20 +7518,20 @@
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>18</v>
@@ -7532,7 +7540,7 @@
         <v>13217</v>
       </c>
       <c r="E424" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7540,7 +7548,7 @@
         <v>10</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>12</v>
@@ -7549,26 +7557,26 @@
         <v>10343</v>
       </c>
       <c r="E425" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B426" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D426" s="2" t="n">
         <v>717</v>
       </c>
       <c r="E426" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B427" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>15</v>
@@ -7577,7 +7585,7 @@
         <v>3152</v>
       </c>
       <c r="E427" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7611,29 +7619,29 @@
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D433" s="2" t="n">
         <v>563</v>
       </c>
       <c r="E433" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7641,7 +7649,7 @@
         <v>10</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>12</v>
@@ -7650,12 +7658,12 @@
         <v>15370</v>
       </c>
       <c r="E434" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B435" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>15</v>
@@ -7664,12 +7672,12 @@
         <v>3023</v>
       </c>
       <c r="E435" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B436" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>18</v>
@@ -7678,7 +7686,7 @@
         <v>5009</v>
       </c>
       <c r="E436" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7712,20 +7720,20 @@
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>21</v>
@@ -7734,7 +7742,7 @@
         <v>800</v>
       </c>
       <c r="E442" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7742,7 +7750,7 @@
         <v>10</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>12</v>
@@ -7751,12 +7759,12 @@
         <v>12783</v>
       </c>
       <c r="E443" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B444" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>15</v>
@@ -7765,12 +7773,12 @@
         <v>2802</v>
       </c>
       <c r="E444" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B445" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>18</v>
@@ -7779,21 +7787,21 @@
         <v>7253</v>
       </c>
       <c r="E445" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B446" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D446" s="2" t="n">
         <v>144</v>
       </c>
       <c r="E446" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7827,20 +7835,20 @@
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>15</v>
@@ -7849,7 +7857,7 @@
         <v>8104</v>
       </c>
       <c r="E452" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7857,7 +7865,7 @@
         <v>10</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>12</v>
@@ -7866,12 +7874,12 @@
         <v>12701</v>
       </c>
       <c r="E453" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B454" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>18</v>
@@ -7880,7 +7888,7 @@
         <v>4156</v>
       </c>
       <c r="E454" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7914,20 +7922,20 @@
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>12</v>
@@ -7936,7 +7944,7 @@
         <v>5717</v>
       </c>
       <c r="E460" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7944,7 +7952,7 @@
         <v>10</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>15</v>
@@ -7953,12 +7961,12 @@
         <v>1935</v>
       </c>
       <c r="E461" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B462" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>8</v>
@@ -7967,12 +7975,12 @@
         <v>336</v>
       </c>
       <c r="E462" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B463" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>18</v>
@@ -7981,21 +7989,21 @@
         <v>8543</v>
       </c>
       <c r="E463" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B464" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D464" s="2" t="n">
         <v>287</v>
       </c>
       <c r="E464" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8029,20 +8037,20 @@
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>18</v>
@@ -8051,7 +8059,7 @@
         <v>9703</v>
       </c>
       <c r="E470" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8059,7 +8067,7 @@
         <v>10</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>15</v>
@@ -8068,12 +8076,12 @@
         <v>2597</v>
       </c>
       <c r="E471" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B472" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>12</v>
@@ -8082,21 +8090,21 @@
         <v>4717</v>
       </c>
       <c r="E472" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B473" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D473" s="2" t="n">
         <v>428</v>
       </c>
       <c r="E473" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8130,20 +8138,20 @@
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>12</v>
@@ -8152,7 +8160,7 @@
         <v>5964</v>
       </c>
       <c r="E479" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8160,7 +8168,7 @@
         <v>10</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>15</v>
@@ -8169,12 +8177,12 @@
         <v>1333</v>
       </c>
       <c r="E480" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B481" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>18</v>
@@ -8183,7 +8191,7 @@
         <v>7675</v>
       </c>
       <c r="E481" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8217,20 +8225,20 @@
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>15</v>
@@ -8239,7 +8247,7 @@
         <v>1496</v>
       </c>
       <c r="E487" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8247,7 +8255,7 @@
         <v>10</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>21</v>
@@ -8256,12 +8264,12 @@
         <v>1108</v>
       </c>
       <c r="E488" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B489" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>18</v>
@@ -8270,12 +8278,12 @@
         <v>7728</v>
       </c>
       <c r="E489" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B490" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>12</v>
@@ -8284,7 +8292,7 @@
         <v>9406</v>
       </c>
       <c r="E490" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8318,20 +8326,20 @@
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>18</v>
@@ -8340,7 +8348,7 @@
         <v>6564</v>
       </c>
       <c r="E496" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8348,7 +8356,7 @@
         <v>10</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>12</v>
@@ -8357,7 +8365,7 @@
         <v>6743</v>
       </c>
       <c r="E497" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8391,20 +8399,20 @@
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C503" s="3" t="s">
         <v>12</v>
@@ -8413,7 +8421,7 @@
         <v>10733</v>
       </c>
       <c r="E503" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8421,21 +8429,21 @@
         <v>10</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D504" s="2" t="n">
         <v>483</v>
       </c>
       <c r="E504" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B505" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C505" s="3" t="s">
         <v>18</v>
@@ -8444,7 +8452,7 @@
         <v>9398</v>
       </c>
       <c r="E505" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8478,20 +8486,20 @@
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C511" s="3" t="s">
         <v>12</v>
@@ -8500,7 +8508,7 @@
         <v>9990</v>
       </c>
       <c r="E511" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8508,7 +8516,7 @@
         <v>10</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C512" s="3" t="s">
         <v>15</v>
@@ -8517,12 +8525,12 @@
         <v>17897</v>
       </c>
       <c r="E512" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B513" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C513" s="3" t="s">
         <v>18</v>
@@ -8531,7 +8539,7 @@
         <v>6547</v>
       </c>
       <c r="E513" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8565,20 +8573,20 @@
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C519" s="3" t="s">
         <v>15</v>
@@ -8587,7 +8595,7 @@
         <v>5488</v>
       </c>
       <c r="E519" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8595,7 +8603,7 @@
         <v>10</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C520" s="3" t="s">
         <v>12</v>
@@ -8604,12 +8612,12 @@
         <v>15190</v>
       </c>
       <c r="E520" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B521" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C521" s="3" t="s">
         <v>18</v>
@@ -8618,7 +8626,7 @@
         <v>6608</v>
       </c>
       <c r="E521" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8652,20 +8660,20 @@
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C527" s="3" t="s">
         <v>18</v>
@@ -8674,7 +8682,7 @@
         <v>13300</v>
       </c>
       <c r="E527" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8682,7 +8690,7 @@
         <v>10</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C528" s="3" t="s">
         <v>12</v>
@@ -8691,12 +8699,12 @@
         <v>8816</v>
       </c>
       <c r="E528" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B529" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C529" s="3" t="s">
         <v>15</v>
@@ -8705,7 +8713,7 @@
         <v>3784</v>
       </c>
       <c r="E529" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8739,20 +8747,20 @@
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C535" s="3" t="s">
         <v>12</v>
@@ -8761,7 +8769,7 @@
         <v>4961</v>
       </c>
       <c r="E535" s="4" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8769,21 +8777,21 @@
         <v>10</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D536" s="2" t="n">
         <v>389</v>
       </c>
       <c r="E536" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B537" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C537" s="3" t="s">
         <v>18</v>
@@ -8792,7 +8800,7 @@
         <v>5810</v>
       </c>
       <c r="E537" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8826,20 +8834,20 @@
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C543" s="3" t="s">
         <v>12</v>
@@ -8848,7 +8856,7 @@
         <v>3745</v>
       </c>
       <c r="E543" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8856,21 +8864,21 @@
         <v>10</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D544" s="2" t="n">
         <v>754</v>
       </c>
       <c r="E544" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B545" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C545" s="3" t="s">
         <v>18</v>
@@ -8879,12 +8887,12 @@
         <v>1904</v>
       </c>
       <c r="E545" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B546" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C546" s="3" t="s">
         <v>8</v>
@@ -8893,7 +8901,7 @@
         <v>831</v>
       </c>
       <c r="E546" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8927,20 +8935,20 @@
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C552" s="3" t="s">
         <v>21</v>
@@ -8949,7 +8957,7 @@
         <v>867</v>
       </c>
       <c r="E552" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8957,7 +8965,7 @@
         <v>10</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C553" s="3" t="s">
         <v>18</v>
@@ -8966,12 +8974,12 @@
         <v>8758</v>
       </c>
       <c r="E553" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B554" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C554" s="3" t="s">
         <v>15</v>
@@ -8980,12 +8988,12 @@
         <v>2169</v>
       </c>
       <c r="E554" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B555" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C555" s="3" t="s">
         <v>12</v>
@@ -8994,21 +9002,21 @@
         <v>12992</v>
       </c>
       <c r="E555" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B556" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D556" s="2" t="n">
         <v>149</v>
       </c>
       <c r="E556" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9042,20 +9050,20 @@
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="5" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C562" s="3" t="s">
         <v>12</v>
@@ -9064,7 +9072,7 @@
         <v>11457</v>
       </c>
       <c r="E562" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9072,7 +9080,7 @@
         <v>10</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C563" s="3" t="s">
         <v>15</v>
@@ -9081,12 +9089,12 @@
         <v>1571</v>
       </c>
       <c r="E563" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B564" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C564" s="3" t="s">
         <v>18</v>
@@ -9095,7 +9103,7 @@
         <v>5776</v>
       </c>
       <c r="E564" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9129,20 +9137,20 @@
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C570" s="3" t="s">
         <v>18</v>
@@ -9151,7 +9159,7 @@
         <v>5540</v>
       </c>
       <c r="E570" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9159,7 +9167,7 @@
         <v>10</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C571" s="3" t="s">
         <v>12</v>
@@ -9168,7 +9176,7 @@
         <v>8171</v>
       </c>
       <c r="E571" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9202,20 +9210,20 @@
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="5" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C577" s="3" t="s">
         <v>12</v>
@@ -9224,7 +9232,7 @@
         <v>10403</v>
       </c>
       <c r="E577" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9232,7 +9240,7 @@
         <v>10</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C578" s="3" t="s">
         <v>18</v>
@@ -9241,26 +9249,26 @@
         <v>5139</v>
       </c>
       <c r="E578" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B579" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D579" s="2" t="n">
         <v>282</v>
       </c>
       <c r="E579" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B580" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C580" s="3" t="s">
         <v>15</v>
@@ -9269,7 +9277,7 @@
         <v>1345</v>
       </c>
       <c r="E580" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9303,20 +9311,20 @@
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C586" s="3" t="s">
         <v>12</v>
@@ -9325,7 +9333,7 @@
         <v>8893</v>
       </c>
       <c r="E586" s="4" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9333,7 +9341,7 @@
         <v>10</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C587" s="3" t="s">
         <v>18</v>
@@ -9342,12 +9350,12 @@
         <v>3911</v>
       </c>
       <c r="E587" s="4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B588" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C588" s="3" t="s">
         <v>15</v>
@@ -9356,7 +9364,7 @@
         <v>1393</v>
       </c>
       <c r="E588" s="4" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9395,15 +9403,15 @@
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="5" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C594" s="3" t="s">
         <v>18</v>
@@ -9412,7 +9420,7 @@
         <v>9607</v>
       </c>
       <c r="E594" s="4" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9420,21 +9428,21 @@
         <v>10</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D595" s="2" t="n">
         <v>458</v>
       </c>
       <c r="E595" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B596" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C596" s="3" t="s">
         <v>12</v>
@@ -9443,7 +9451,7 @@
         <v>12336</v>
       </c>
       <c r="E596" s="4" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9477,20 +9485,20 @@
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C602" s="3" t="s">
         <v>18</v>
@@ -9499,7 +9507,7 @@
         <v>12970</v>
       </c>
       <c r="E602" s="4" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9507,7 +9515,7 @@
         <v>10</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C603" s="3" t="s">
         <v>12</v>
@@ -9516,12 +9524,12 @@
         <v>11794</v>
       </c>
       <c r="E603" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B604" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C604" s="3" t="s">
         <v>15</v>
@@ -9530,7 +9538,7 @@
         <v>2623</v>
       </c>
       <c r="E604" s="4" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9564,29 +9572,29 @@
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="5" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D610" s="2" t="n">
         <v>223</v>
       </c>
       <c r="E610" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9594,21 +9602,21 @@
         <v>10</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D611" s="2" t="n">
         <v>228</v>
       </c>
       <c r="E611" s="4" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B612" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C612" s="3" t="s">
         <v>18</v>
@@ -9617,12 +9625,12 @@
         <v>4052</v>
       </c>
       <c r="E612" s="4" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B613" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C613" s="3" t="s">
         <v>12</v>
@@ -9631,7 +9639,7 @@
         <v>10994</v>
       </c>
       <c r="E613" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9665,29 +9673,29 @@
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D619" s="2" t="n">
         <v>443</v>
       </c>
       <c r="E619" s="4" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9695,7 +9703,7 @@
         <v>10</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C620" s="3" t="s">
         <v>18</v>
@@ -9704,12 +9712,12 @@
         <v>10718</v>
       </c>
       <c r="E620" s="4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B621" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C621" s="3" t="s">
         <v>15</v>
@@ -9718,26 +9726,26 @@
         <v>3862</v>
       </c>
       <c r="E621" s="4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B622" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C622" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D622" s="2" t="n">
         <v>1607</v>
       </c>
       <c r="E622" s="4" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B623" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C623" s="3" t="s">
         <v>12</v>
@@ -9746,7 +9754,7 @@
         <v>10494</v>
       </c>
       <c r="E623" s="4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9780,20 +9788,20 @@
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="5" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C629" s="3" t="s">
         <v>18</v>
@@ -9802,7 +9810,7 @@
         <v>7570</v>
       </c>
       <c r="E629" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9810,21 +9818,21 @@
         <v>10</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D630" s="2" t="n">
         <v>234</v>
       </c>
       <c r="E630" s="4" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B631" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C631" s="3" t="s">
         <v>15</v>
@@ -9833,12 +9841,12 @@
         <v>4368</v>
       </c>
       <c r="E631" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B632" s="3" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C632" s="3" t="s">
         <v>12</v>
@@ -9847,7 +9855,7 @@
         <v>15538</v>
       </c>
       <c r="E632" s="4" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9881,20 +9889,20 @@
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C638" s="3" t="s">
         <v>12</v>
@@ -9903,7 +9911,7 @@
         <v>11484</v>
       </c>
       <c r="E638" s="4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9911,21 +9919,21 @@
         <v>10</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C639" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D639" s="2" t="n">
         <v>280</v>
       </c>
       <c r="E639" s="4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B640" s="3" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C640" s="3" t="s">
         <v>21</v>
@@ -9934,12 +9942,12 @@
         <v>465</v>
       </c>
       <c r="E640" s="4" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B641" s="3" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C641" s="3" t="s">
         <v>15</v>
@@ -9948,12 +9956,12 @@
         <v>3108</v>
       </c>
       <c r="E641" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B642" s="3" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C642" s="3" t="s">
         <v>18</v>
@@ -9962,7 +9970,7 @@
         <v>9217</v>
       </c>
       <c r="E642" s="4" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9996,20 +10004,20 @@
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="5" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C648" s="3" t="s">
         <v>12</v>
@@ -10018,7 +10026,7 @@
         <v>12247</v>
       </c>
       <c r="E648" s="4" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10026,7 +10034,7 @@
         <v>10</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C649" s="3" t="s">
         <v>18</v>
@@ -10035,12 +10043,12 @@
         <v>7511</v>
       </c>
       <c r="E649" s="4" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B650" s="3" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C650" s="3" t="s">
         <v>15</v>
@@ -10049,7 +10057,7 @@
         <v>1969</v>
       </c>
       <c r="E650" s="4" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10083,29 +10091,29 @@
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="3" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C656" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D656" s="2" t="n">
         <v>321</v>
       </c>
       <c r="E656" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10113,7 +10121,7 @@
         <v>10</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C657" s="3" t="s">
         <v>15</v>
@@ -10122,26 +10130,26 @@
         <v>4312</v>
       </c>
       <c r="E657" s="4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B658" s="3" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C658" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D658" s="2" t="n">
         <v>184</v>
       </c>
       <c r="E658" s="4" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B659" s="3" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C659" s="3" t="s">
         <v>18</v>
@@ -10150,12 +10158,12 @@
         <v>3885</v>
       </c>
       <c r="E659" s="4" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B660" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C660" s="3" t="s">
         <v>12</v>
@@ -10164,7 +10172,7 @@
         <v>13362</v>
       </c>
       <c r="E660" s="4" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10198,20 +10206,20 @@
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="5" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C666" s="3" t="s">
         <v>12</v>
@@ -10220,7 +10228,7 @@
         <v>12481</v>
       </c>
       <c r="E666" s="4" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10228,7 +10236,7 @@
         <v>10</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C667" s="3" t="s">
         <v>18</v>
@@ -10237,12 +10245,12 @@
         <v>5255</v>
       </c>
       <c r="E667" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B668" s="3" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C668" s="3" t="s">
         <v>15</v>
@@ -10251,21 +10259,21 @@
         <v>2874</v>
       </c>
       <c r="E668" s="4" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B669" s="3" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C669" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D669" s="2" t="n">
         <v>202</v>
       </c>
       <c r="E669" s="4" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10299,20 +10307,20 @@
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="3" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C675" s="3" t="s">
         <v>18</v>
@@ -10321,7 +10329,7 @@
         <v>3919</v>
       </c>
       <c r="E675" s="4" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10329,7 +10337,7 @@
         <v>10</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C676" s="3" t="s">
         <v>15</v>
@@ -10338,12 +10346,12 @@
         <v>1662</v>
       </c>
       <c r="E676" s="4" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B677" s="3" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C677" s="3" t="s">
         <v>12</v>
@@ -10352,21 +10360,21 @@
         <v>12297</v>
       </c>
       <c r="E677" s="4" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B678" s="3" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C678" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D678" s="2" t="n">
         <v>257</v>
       </c>
       <c r="E678" s="4" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10400,20 +10408,20 @@
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="5" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C684" s="3" t="s">
         <v>15</v>
@@ -10422,7 +10430,7 @@
         <v>1840</v>
       </c>
       <c r="E684" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10430,7 +10438,7 @@
         <v>10</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C685" s="3" t="s">
         <v>18</v>
@@ -10439,26 +10447,26 @@
         <v>9888</v>
       </c>
       <c r="E685" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B686" s="3" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D686" s="2" t="n">
         <v>224</v>
       </c>
       <c r="E686" s="4" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B687" s="3" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C687" s="3" t="s">
         <v>12</v>
@@ -10467,7 +10475,7 @@
         <v>8431</v>
       </c>
       <c r="E687" s="4" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10501,20 +10509,20 @@
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C693" s="3" t="s">
         <v>12</v>
@@ -10523,7 +10531,7 @@
         <v>14530</v>
       </c>
       <c r="E693" s="4" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10531,7 +10539,7 @@
         <v>10</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C694" s="3" t="s">
         <v>15</v>
@@ -10540,12 +10548,12 @@
         <v>4356</v>
       </c>
       <c r="E694" s="4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B695" s="3" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C695" s="3" t="s">
         <v>18</v>
@@ -10554,7 +10562,7 @@
         <v>2816</v>
       </c>
       <c r="E695" s="4" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10588,20 +10596,20 @@
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="5" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C701" s="3" t="s">
         <v>18</v>
@@ -10610,7 +10618,7 @@
         <v>7712</v>
       </c>
       <c r="E701" s="4" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10618,7 +10626,7 @@
         <v>10</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C702" s="3" t="s">
         <v>12</v>
@@ -10627,12 +10635,12 @@
         <v>12602</v>
       </c>
       <c r="E702" s="4" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B703" s="3" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C703" s="3" t="s">
         <v>15</v>
@@ -10641,7 +10649,7 @@
         <v>4241</v>
       </c>
       <c r="E703" s="4" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10675,20 +10683,20 @@
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C709" s="3" t="s">
         <v>15</v>
@@ -10697,7 +10705,7 @@
         <v>3341</v>
       </c>
       <c r="E709" s="4" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10705,7 +10713,7 @@
         <v>10</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C710" s="3" t="s">
         <v>12</v>
@@ -10714,12 +10722,12 @@
         <v>6197</v>
       </c>
       <c r="E710" s="4" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B711" s="3" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C711" s="3" t="s">
         <v>18</v>
@@ -10728,7 +10736,7 @@
         <v>12157</v>
       </c>
       <c r="E711" s="4" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10762,20 +10770,20 @@
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="5" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C717" s="3" t="s">
         <v>12</v>
@@ -10784,7 +10792,7 @@
         <v>12439</v>
       </c>
       <c r="E717" s="4" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10792,7 +10800,7 @@
         <v>10</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C718" s="3" t="s">
         <v>18</v>
@@ -10801,12 +10809,12 @@
         <v>4014</v>
       </c>
       <c r="E718" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B719" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C719" s="3" t="s">
         <v>15</v>
@@ -10815,21 +10823,21 @@
         <v>3250</v>
       </c>
       <c r="E719" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B720" s="3" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C720" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D720" s="2" t="n">
         <v>259</v>
       </c>
       <c r="E720" s="4" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10863,20 +10871,20 @@
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="3" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C726" s="3" t="s">
         <v>21</v>
@@ -10885,7 +10893,7 @@
         <v>3472</v>
       </c>
       <c r="E726" s="4" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10893,7 +10901,7 @@
         <v>10</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C727" s="3" t="s">
         <v>18</v>
@@ -10902,12 +10910,12 @@
         <v>9798</v>
       </c>
       <c r="E727" s="4" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B728" s="3" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C728" s="3" t="s">
         <v>12</v>
@@ -10916,12 +10924,12 @@
         <v>10222</v>
       </c>
       <c r="E728" s="4" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B729" s="3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C729" s="3" t="s">
         <v>15</v>
@@ -10930,7 +10938,7 @@
         <v>4464</v>
       </c>
       <c r="E729" s="4" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10964,20 +10972,20 @@
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="5" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C735" s="3" t="s">
         <v>18</v>
@@ -10986,7 +10994,7 @@
         <v>4329</v>
       </c>
       <c r="E735" s="4" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10994,7 +11002,7 @@
         <v>10</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C736" s="3" t="s">
         <v>12</v>
@@ -11003,12 +11011,12 @@
         <v>16474</v>
       </c>
       <c r="E736" s="4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B737" s="3" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C737" s="3" t="s">
         <v>15</v>
@@ -11017,21 +11025,21 @@
         <v>9031</v>
       </c>
       <c r="E737" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B738" s="3" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C738" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D738" s="2" t="n">
         <v>335</v>
       </c>
       <c r="E738" s="4" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11065,20 +11073,20 @@
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="3" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C744" s="3" t="s">
         <v>12</v>
@@ -11087,7 +11095,7 @@
         <v>14384</v>
       </c>
       <c r="E744" s="4" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11095,7 +11103,7 @@
         <v>10</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C745" s="3" t="s">
         <v>15</v>
@@ -11104,40 +11112,40 @@
         <v>6700</v>
       </c>
       <c r="E745" s="4" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B746" s="3" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C746" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D746" s="2" t="n">
         <v>107</v>
       </c>
       <c r="E746" s="4" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B747" s="3" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C747" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D747" s="2" t="n">
         <v>244</v>
       </c>
       <c r="E747" s="4" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B748" s="3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C748" s="3" t="s">
         <v>18</v>
@@ -11146,7 +11154,7 @@
         <v>2743</v>
       </c>
       <c r="E748" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11180,20 +11188,20 @@
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C754" s="3" t="s">
         <v>12</v>
@@ -11202,7 +11210,7 @@
         <v>7194</v>
       </c>
       <c r="E754" s="4" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11210,7 +11218,7 @@
         <v>10</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C755" s="3" t="s">
         <v>18</v>
@@ -11219,12 +11227,12 @@
         <v>12734</v>
       </c>
       <c r="E755" s="4" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B756" s="3" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C756" s="3" t="s">
         <v>15</v>
@@ -11233,21 +11241,21 @@
         <v>3664</v>
       </c>
       <c r="E756" s="4" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B757" s="3" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C757" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D757" s="2" t="n">
         <v>186</v>
       </c>
       <c r="E757" s="4" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11282,20 +11290,20 @@
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="3" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C763" s="3" t="s">
         <v>12</v>
@@ -11304,7 +11312,7 @@
         <v>6197</v>
       </c>
       <c r="E763" s="4" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11312,7 +11320,7 @@
         <v>10</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C764" s="3" t="s">
         <v>18</v>
@@ -11321,12 +11329,12 @@
         <v>9249</v>
       </c>
       <c r="E764" s="4" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B765" s="3" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C765" s="3" t="s">
         <v>15</v>
@@ -11335,7 +11343,7 @@
         <v>9189</v>
       </c>
       <c r="E765" s="4" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11363,6 +11371,11 @@
       </c>
       <c r="D768" s="3" t="n">
         <v>42786</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A769" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
